--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/RegulatedAuthorization-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/RegulatedAuthorization-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -571,7 +571,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/VsRegulatedAuthorization</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/VsRegulatedAuthorization</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -649,7 +649,7 @@
     <t>RegulatedAuthorization.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/MedicinalProductDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/MedicinalProductDefinition-uv-epi)
 </t>
   </si>
   <si>
@@ -671,7 +671,7 @@
     <t>Overall type of this authorization, for example drug marketing approval, orphan drug designation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/RegulatedAuthorizationTypeIdSystems</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/RegulatedAuthorizationTypeIdSystems</t>
   </si>
   <si>
     <t>RegulatedAuthorization.description</t>
@@ -696,7 +696,7 @@
     <t>The territory (e.g., country, jurisdiction etc.) in which the authorization has been granted.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/country</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/country</t>
   </si>
   <si>
     <t>Marketing Authorisation.Country</t>
@@ -711,7 +711,7 @@
     <t>The status that is authorised e.g. approved. Intermediate states and actions can be tracked with cases and applications.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/authorizationStatus</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/authorizationStatus</t>
   </si>
   <si>
     <t>Marketing Authorisation.Authorisation Status</t>
@@ -748,7 +748,7 @@
     <t>RegulatedAuthorization.indication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/ClinicalUseDefinition-indication-uv-epi)
+    <t xml:space="preserve">CodeableReference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/ClinicalUseDefinition-indication-uv-epi)
 </t>
   </si>
   <si>
@@ -831,7 +831,7 @@
     <t>RegulatedAuthorization.holder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/Organization-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/Organization-uv-epi)
 </t>
   </si>
   <si>
@@ -935,7 +935,7 @@
     <t>RegulatedAuthorization.case.identifier.system</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/caseIdSystem</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/caseIdSystem</t>
   </si>
   <si>
     <t>RegulatedAuthorization.case.identifier.value</t>
@@ -956,7 +956,7 @@
     <t>The defining type of case.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/regulatoryActivityType</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/regulatoryActivityType</t>
   </si>
   <si>
     <t>Marketing Authorisation Procedure.Procedure Type, Marketing Authorisation Application.Application Type</t>
@@ -971,7 +971,7 @@
     <t>The status associated with the case.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/generalStatus</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/generalStatus</t>
   </si>
   <si>
     <t>RegulatedAuthorization.case.date[x]</t>
@@ -1335,7 +1335,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="90.82421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.38671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.234375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="320">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T15:04:58+00:00</t>
+    <t>2022-12-14T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -439,7 +442,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -593,7 +596,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-ballot/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -1302,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL53"/>
+  <dimension ref="A1:AM53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1312,43 +1315,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="45.85546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.85546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="142.3984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="115.1875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="90.82421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="87.234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="90.82421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="87.234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="154.8515625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="154.8515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1466,105 +1469,108 @@
       <c r="AL1" t="s" s="1">
         <v>72</v>
       </c>
+      <c r="AM1" t="s" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>79</v>
@@ -1572,30 +1578,33 @@
       <c r="AL2" t="s" s="2">
         <v>80</v>
       </c>
+      <c r="AM2" t="s" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>84</v>
@@ -1609,104 +1618,107 @@
       <c r="M3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>91</v>
@@ -1714,105 +1726,108 @@
       <c r="L4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>97</v>
@@ -1823,104 +1838,107 @@
       <c r="M5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>103</v>
@@ -1931,31 +1949,31 @@
       <c r="M6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>107</v>
@@ -1964,71 +1982,74 @@
         <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>113</v>
@@ -2039,104 +2060,107 @@
       <c r="M7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>121</v>
@@ -2147,104 +2171,107 @@
       <c r="M8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>129</v>
@@ -2255,214 +2282,220 @@
       <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>141</v>
@@ -2470,322 +2503,331 @@
       <c r="L11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>144</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
         <v>153</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>158</v>
@@ -2797,100 +2839,103 @@
         <v>160</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>162</v>
       </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>167</v>
@@ -2905,103 +2950,106 @@
         <v>170</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>172</v>
       </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>176</v>
@@ -3013,100 +3061,103 @@
         <v>178</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X16" s="2"/>
-      <c r="Y16" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>185</v>
@@ -3117,104 +3168,107 @@
       <c r="M17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>190</v>
+        <v>74</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>193</v>
@@ -3222,105 +3276,108 @@
       <c r="L18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>197</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>199</v>
@@ -3331,104 +3388,107 @@
       <c r="M19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>74</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>206</v>
@@ -3436,209 +3496,215 @@
       <c r="L20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M21" s="2"/>
+      <c r="M21" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>214</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>215</v>
@@ -3646,313 +3712,322 @@
       <c r="L22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="X23" s="2"/>
-      <c r="Y23" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M24" s="2"/>
+      <c r="M24" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="X24" s="2"/>
-      <c r="Y24" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>226</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>229</v>
@@ -3960,211 +4035,217 @@
       <c r="L25" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>231</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>238</v>
@@ -4172,425 +4253,437 @@
       <c r="L27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>74</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
         <v>153</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M30" s="2"/>
+      <c r="M30" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>247</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>248</v>
@@ -4598,244 +4691,250 @@
       <c r="L31" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M31" s="2"/>
+      <c r="M31" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M32" s="2"/>
+      <c r="M32" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>254</v>
+        <v>107</v>
       </c>
       <c r="Y32" t="s" s="2">
         <v>255</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>260</v>
@@ -4844,71 +4943,74 @@
         <v>261</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>262</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>264</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>265</v>
@@ -4916,211 +5018,217 @@
       <c r="L34" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M34" s="2"/>
+      <c r="M34" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>267</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>264</v>
+        <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M35" s="2"/>
+      <c r="M35" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>271</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>273</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>274</v>
@@ -5128,105 +5236,108 @@
       <c r="L36" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M36" s="2"/>
+      <c r="M36" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>272</v>
+        <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>278</v>
@@ -5234,752 +5345,773 @@
       <c r="L37" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M37" s="2"/>
+      <c r="M37" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>74</v>
+        <v>277</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>73</v>
+        <v>281</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M38" s="2"/>
+      <c r="M38" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B40" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>285</v>
+        <v>129</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>286</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>131</v>
+        <v>287</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>126</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>289</v>
+        <v>141</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>288</v>
+        <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>74</v>
+        <v>289</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>291</v>
+        <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>73</v>
+        <v>292</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M42" s="2"/>
+      <c r="M42" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
         <v>153</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>158</v>
@@ -5991,100 +6123,103 @@
         <v>160</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X44" s="2"/>
-      <c r="Y44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X44" t="s" s="2">
         <v>162</v>
       </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>165</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>167</v>
@@ -6099,103 +6234,106 @@
         <v>170</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X45" s="2"/>
-      <c r="Y45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X45" t="s" s="2">
         <v>172</v>
       </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>165</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>176</v>
@@ -6207,100 +6345,103 @@
         <v>178</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="X46" s="2"/>
-      <c r="Y46" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>183</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>185</v>
@@ -6311,104 +6452,107 @@
       <c r="M47" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N47" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>190</v>
+        <v>74</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>191</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>193</v>
@@ -6416,105 +6560,108 @@
       <c r="L48" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M48" s="2"/>
+      <c r="M48" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>197</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>199</v>
@@ -6525,312 +6672,321 @@
       <c r="M49" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N49" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>203</v>
+        <v>74</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>204</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M50" s="2"/>
+      <c r="M50" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="X50" s="2"/>
-      <c r="Y50" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>73</v>
+        <v>305</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>307</v>
+        <v>167</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M51" s="2"/>
+      <c r="M51" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="X51" s="2"/>
-      <c r="Y51" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>73</v>
+        <v>310</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>306</v>
+        <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>311</v>
+        <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>312</v>
@@ -6838,183 +6994,189 @@
       <c r="L52" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M52" s="2"/>
+      <c r="M52" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>310</v>
+        <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>74</v>
+        <v>311</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>314</v>
+        <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>73</v>
+        <v>315</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M53" s="2"/>
+      <c r="M53" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>315</v>
+        <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>74</v>
+        <v>316</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>318</v>
+        <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>73</v>
+        <v>319</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -442,7 +442,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -519,7 +519,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -596,7 +596,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-ballot/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-snapshot3/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="321">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Regulatory approval, clearance or licencing related to a regulated product, treatment, facility or activity e.g. Market Authorization for a Medicinal Product</t>
@@ -1501,13 +1505,13 @@
         <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1573,21 +1577,21 @@
         <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1598,7 +1602,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1607,19 +1611,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1669,13 +1673,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1695,10 +1699,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1709,7 +1713,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -1718,16 +1722,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1778,19 +1782,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -1804,10 +1808,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1818,28 +1822,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1889,19 +1893,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -1915,10 +1919,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1929,7 +1933,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1941,16 +1945,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1976,13 +1980,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2000,19 +2004,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -2026,21 +2030,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -2052,16 +2056,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2111,19 +2115,19 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
@@ -2132,19 +2136,19 @@
         <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2163,16 +2167,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2222,7 +2226,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2243,19 +2247,19 @@
         <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2274,16 +2278,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2333,7 +2337,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2345,7 +2349,7 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -2354,19 +2358,19 @@
         <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2379,25 +2383,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2446,7 +2450,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2458,7 +2462,7 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -2467,15 +2471,15 @@
         <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2483,7 +2487,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>76</v>
@@ -2495,16 +2499,16 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2555,7 +2559,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2567,13 +2571,13 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -2581,10 +2585,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2595,7 +2599,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2607,13 +2611,13 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2664,13 +2668,13 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
@@ -2685,19 +2689,19 @@
         <v>74</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2716,16 +2720,16 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2763,19 +2767,19 @@
         <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2787,7 +2791,7 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>74</v>
@@ -2796,15 +2800,15 @@
         <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2815,31 +2819,31 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
@@ -2864,11 +2868,11 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -2886,19 +2890,19 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
@@ -2907,15 +2911,15 @@
         <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2926,7 +2930,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -2935,22 +2939,22 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -2975,11 +2979,11 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -2997,19 +3001,19 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
@@ -3018,15 +3022,15 @@
         <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3034,10 +3038,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -3046,22 +3050,22 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3074,7 +3078,7 @@
         <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>74</v>
@@ -3086,11 +3090,11 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3108,19 +3112,19 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3129,15 +3133,15 @@
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3145,10 +3149,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3157,19 +3161,19 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3183,7 +3187,7 @@
         <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>74</v>
@@ -3219,19 +3223,19 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
@@ -3240,15 +3244,15 @@
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3259,7 +3263,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3268,16 +3272,16 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3328,19 +3332,19 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
@@ -3349,15 +3353,15 @@
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3368,7 +3372,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3377,19 +3381,19 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3439,19 +3443,19 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3460,15 +3464,15 @@
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3476,7 +3480,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
@@ -3488,16 +3492,16 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3548,7 +3552,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3560,10 +3564,10 @@
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3574,10 +3578,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3588,7 +3592,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3597,16 +3601,16 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3633,11 +3637,11 @@
         <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>74</v>
@@ -3655,22 +3659,22 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3681,10 +3685,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3695,7 +3699,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -3704,16 +3708,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3764,22 +3768,22 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3790,10 +3794,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3813,16 +3817,16 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3849,11 +3853,11 @@
         <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>74</v>
@@ -3871,7 +3875,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -3883,10 +3887,10 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -3897,10 +3901,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3911,7 +3915,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -3920,16 +3924,16 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3956,11 +3960,11 @@
         <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>74</v>
@@ -3978,22 +3982,22 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4004,10 +4008,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4018,7 +4022,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4027,16 +4031,16 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4087,22 +4091,22 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4113,10 +4117,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4127,7 +4131,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4136,16 +4140,16 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4196,22 +4200,22 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4222,10 +4226,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4245,16 +4249,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4305,7 +4309,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4317,10 +4321,10 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4331,10 +4335,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4345,7 +4349,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4357,13 +4361,13 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4414,13 +4418,13 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
@@ -4435,19 +4439,19 @@
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4466,16 +4470,16 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4513,19 +4517,19 @@
         <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4537,7 +4541,7 @@
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4546,15 +4550,15 @@
         <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4565,7 +4569,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4574,16 +4578,16 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4634,19 +4638,19 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -4655,15 +4659,15 @@
         <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4671,10 +4675,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -4683,16 +4687,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4743,19 +4747,19 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -4764,15 +4768,15 @@
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4783,7 +4787,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4792,16 +4796,16 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4828,13 +4832,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -4852,22 +4856,22 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -4878,10 +4882,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4901,16 +4905,16 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4937,13 +4941,13 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>74</v>
@@ -4961,7 +4965,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -4973,10 +4977,10 @@
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -4987,10 +4991,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4998,10 +5002,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5010,16 +5014,16 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5070,22 +5074,22 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -5096,10 +5100,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5110,7 +5114,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5119,16 +5123,16 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5179,22 +5183,22 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5205,10 +5209,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5228,16 +5232,16 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5288,7 +5292,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5300,10 +5304,10 @@
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
@@ -5314,10 +5318,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5328,7 +5332,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5337,16 +5341,16 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5397,22 +5401,22 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5423,10 +5427,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5437,7 +5441,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5449,13 +5453,13 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5506,13 +5510,13 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
@@ -5527,19 +5531,19 @@
         <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5558,16 +5562,16 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5617,7 +5621,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5629,7 +5633,7 @@
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -5638,19 +5642,19 @@
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5663,25 +5667,25 @@
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -5730,7 +5734,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5742,7 +5746,7 @@
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -5751,15 +5755,15 @@
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5770,7 +5774,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -5779,16 +5783,16 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5839,22 +5843,22 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -5865,10 +5869,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5879,7 +5883,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -5891,13 +5895,13 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5948,13 +5952,13 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
@@ -5969,19 +5973,19 @@
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6000,16 +6004,16 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6047,19 +6051,19 @@
         <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6071,7 +6075,7 @@
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
@@ -6080,15 +6084,15 @@
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6099,31 +6103,31 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
@@ -6148,11 +6152,11 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -6170,19 +6174,19 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -6191,15 +6195,15 @@
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6210,7 +6214,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6219,22 +6223,22 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6259,11 +6263,11 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -6281,19 +6285,19 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
@@ -6302,15 +6306,15 @@
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6321,7 +6325,7 @@
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
@@ -6330,22 +6334,22 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6358,7 +6362,7 @@
         <v>74</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>74</v>
@@ -6370,11 +6374,11 @@
         <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -6392,19 +6396,19 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6413,15 +6417,15 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6432,7 +6436,7 @@
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -6441,19 +6445,19 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6467,7 +6471,7 @@
         <v>74</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>74</v>
@@ -6503,19 +6507,19 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
@@ -6524,15 +6528,15 @@
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6543,7 +6547,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -6552,16 +6556,16 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6612,19 +6616,19 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -6633,15 +6637,15 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6652,7 +6656,7 @@
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -6661,19 +6665,19 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6723,19 +6727,19 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
@@ -6744,15 +6748,15 @@
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6763,7 +6767,7 @@
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -6772,16 +6776,16 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6808,11 +6812,11 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -6830,22 +6834,22 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -6856,10 +6860,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6870,7 +6874,7 @@
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -6879,16 +6883,16 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6915,11 +6919,11 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -6937,22 +6941,22 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -6963,10 +6967,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6977,7 +6981,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -6986,16 +6990,16 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7046,22 +7050,22 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7072,10 +7076,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7095,16 +7099,16 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7155,7 +7159,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7167,10 +7171,10 @@
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="327">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T21:05:48+00:00</t>
+    <t>2023-04-05T09:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-snapshot3</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -228,10 +228,10 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
     <t>Mapping: IDMP Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
@@ -256,13 +256,13 @@
     <t>Regulatory approval, clearance or licencing related to a regulated product, treatment, facility or activity that is cited in a guidance, regulation, rule or legislative act. An example is Market Authorization relating to a Medicinal Product.</t>
   </si>
   <si>
-    <t>Marketing Authorisation, Clinical Trial Authorisation</t>
-  </si>
-  <si>
     <t>administrative.medication</t>
   </si>
   <si>
-    <t>Entity. Role, or Act</t>
+    <t>Marketing Authorization, Clinical Trial Authorization</t>
+  </si>
+  <si>
+    <t>Entity, Role, or Act</t>
   </si>
   <si>
     <t>RegulatedAuthorization.id</t>
@@ -323,7 +323,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of its narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -345,13 +345,13 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>IETF language tag</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>IETF language tag for a human language</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages|5.0.0</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -380,6 +380,10 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t xml:space="preserve">dom-6
+</t>
+  </si>
+  <si>
     <t>Act.text?</t>
   </si>
   <si>
@@ -406,6 +410,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>dom-2
+dom-4dom-3dom-5</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -423,7 +431,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -442,11 +450,11 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -465,12 +473,12 @@
     <t>Business identifier for the authorization, typically assigned by the authorizing body.</t>
   </si>
   <si>
-    <t>Marketing Authorisation.Marketing Authorisation Number</t>
-  </si>
-  <si>
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>Marketing Authorization.Marketing Authorization Number</t>
+  </si>
+  <si>
     <t>RegulatedAuthorization.identifier.id</t>
   </si>
   <si>
@@ -483,13 +491,17 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
     <t>RegulatedAuthorization.identifier.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -520,10 +532,10 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot3</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -554,6 +566,9 @@
     <t>extensible</t>
   </si>
   <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
@@ -566,7 +581,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, an absolute URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -600,13 +615,17 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-snapshot3/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [http://hl7.org/fhir/StructureDefinition/rendered-value](http://hl7.org/fhir/extensions/StructureDefinition-rendered-value.html)). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ident-1
+</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -703,10 +722,13 @@
     <t>The territory (e.g., country, jurisdiction etc.) in which the authorization has been granted.</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/country</t>
   </si>
   <si>
-    <t>Marketing Authorisation.Country</t>
+    <t>Marketing Authorization.Country</t>
   </si>
   <si>
     <t>RegulatedAuthorization.status</t>
@@ -721,7 +743,7 @@
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/authorizationStatus</t>
   </si>
   <si>
-    <t>Marketing Authorisation.Authorisation Status</t>
+    <t>Marketing Authorization.Authorization Status</t>
   </si>
   <si>
     <t>RegulatedAuthorization.statusDate</t>
@@ -737,7 +759,7 @@
     <t>The date at which the current status was assigned.</t>
   </si>
   <si>
-    <t>Marketing Authorisation.Authorisation Status Date</t>
+    <t>Marketing Authorization.Authorization Status Date</t>
   </si>
   <si>
     <t>RegulatedAuthorization.validityPeriod</t>
@@ -749,7 +771,7 @@
     <t>The time period in which the regulatory approval, clearance or licencing is in effect. As an example, a Marketing Authorization includes the date of authorization and/or an expiration date.</t>
   </si>
   <si>
-    <t>Marketing Authorisation.Validity Period Start, Marketing Authorisation.Validity Period End</t>
+    <t>Marketing Authorization.Validity Period Start, Marketing Authorization.Validity Period End</t>
   </si>
   <si>
     <t>RegulatedAuthorization.indication</t>
@@ -832,7 +854,7 @@
     <t>http://hl7.org/fhir/ValueSet/regulated-authorization-basis</t>
   </si>
   <si>
-    <t>Marketing Authorisation.Status Reasons.Legal Grounds</t>
+    <t>Marketing Authorization.Status Reasons.Legal Grounds</t>
   </si>
   <si>
     <t>RegulatedAuthorization.holder</t>
@@ -848,7 +870,7 @@
     <t>The organization that has been granted this authorization, by some authoritative body (the 'regulator').</t>
   </si>
   <si>
-    <t>Marketing Authorisation.Marketing Authorisation Holder (Organisation)</t>
+    <t>Marketing Authorization.Marketing Authorization Holder (Organisation)</t>
   </si>
   <si>
     <t>RegulatedAuthorization.regulator</t>
@@ -860,7 +882,7 @@
     <t>The regulatory authority or authorizing body granting the authorization. For example, European Medicines Agency (EMA), Food and Drug Administration (FDA), Health Canada (HC), etc.</t>
   </si>
   <si>
-    <t>Marketing Authorisation.Medicines Regulatory Agency (Organisation)</t>
+    <t>Marketing Authorization.Medicines Regulatory Agency (Organisation)</t>
   </si>
   <si>
     <t>RegulatedAuthorization.attachedDocument</t>
@@ -889,7 +911,7 @@
     <t>The case or regulatory procedure for granting or amending a regulated authorization. An authorization is granted in response to submissions/applications by those seeking authorization. A case is the administrative process that deals with the application(s) that relate to this and assesses them. Note: This area is subject to ongoing review and the workgroup is seeking implementer feedback on its use (see link at bottom of page).</t>
   </si>
   <si>
-    <t>Marketing Authorisation.Marketing Authorisation Procedure, Marketing Authorisation Procedure.Marketing Authorisation Application</t>
+    <t>Marketing Authorization.Marketing Authorization Procedure, Marketing Authorization Procedure.Marketing Authorization Application</t>
   </si>
   <si>
     <t>RegulatedAuthorization.case.id</t>
@@ -908,7 +930,7 @@
     <t>Extensions that cannot be ignored even if unrecognized</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -924,7 +946,7 @@
     <t>Identifier by which this case can be referenced.</t>
   </si>
   <si>
-    <t>Marketing Authorisation Procedure.Procedure Identifier / Number, Marketing Authorisation Application.Application Identifier / Number</t>
+    <t>Marketing Authorization Procedure.Procedure Identifier / Number, Marketing Authorization Application.Application Identifier / Number</t>
   </si>
   <si>
     <t>RegulatedAuthorization.case.identifier.id</t>
@@ -966,7 +988,7 @@
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/regulatoryActivityType</t>
   </si>
   <si>
-    <t>Marketing Authorisation Procedure.Procedure Type, Marketing Authorisation Application.Application Type</t>
+    <t>Marketing Authorization Procedure.Procedure Type, Marketing Authorization Application.Application Type</t>
   </si>
   <si>
     <t>RegulatedAuthorization.case.status</t>
@@ -994,7 +1016,7 @@
     <t>Relevant date for this case.</t>
   </si>
   <si>
-    <t>Marketing Authorisation Procedure.Procedure Date Start, Marketing Authorisation Procedure.Procedure Date End, Marketing Authorisation Application.Application Date</t>
+    <t>Marketing Authorization Procedure.Procedure Date Start, Marketing Authorization Procedure.Procedure Date End, Marketing Authorization Application.Application Date</t>
   </si>
   <si>
     <t>RegulatedAuthorization.case.application</t>
@@ -1006,7 +1028,7 @@
     <t>A regulatory submission from an organization to a regulator, as part of an assessing case. Multiple applications may occur over time, with more or different information to support or modify the submission or the authorization. The applications can be considered as steps within the longer running case or procedure for this authorization process.</t>
   </si>
   <si>
-    <t>Marketing Authorisation.Marketing Authorisation Application</t>
+    <t>Marketing Authorization.Marketing Authorization Application</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1364,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="90.82421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="87.234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -1353,8 +1375,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="154.8515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="154.87109375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2124,7 +2146,7 @@
         <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>96</v>
@@ -2136,19 +2158,19 @@
         <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2167,16 +2189,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2226,7 +2248,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2235,7 +2257,7 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>74</v>
@@ -2247,19 +2269,19 @@
         <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2278,16 +2300,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2337,7 +2359,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2349,7 +2371,7 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -2358,19 +2380,19 @@
         <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2389,19 +2411,19 @@
         <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2450,7 +2472,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2462,7 +2484,7 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -2471,15 +2493,15 @@
         <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2502,13 +2524,13 @@
         <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2559,7 +2581,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2574,10 +2596,10 @@
         <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -2585,10 +2607,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2614,10 +2636,10 @@
         <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2668,7 +2690,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2677,7 +2699,7 @@
         <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
@@ -2689,19 +2711,19 @@
         <v>74</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2720,16 +2742,16 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2767,19 +2789,19 @@
         <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2791,7 +2813,7 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>74</v>
@@ -2800,15 +2822,15 @@
         <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2834,16 +2856,16 @@
         <v>104</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
@@ -2868,11 +2890,13 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -2890,7 +2914,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -2911,15 +2935,15 @@
         <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2942,19 +2966,19 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -2979,11 +3003,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3001,7 +3027,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3022,15 +3048,15 @@
         <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3056,16 +3082,16 @@
         <v>98</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3078,7 +3104,7 @@
         <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>74</v>
@@ -3090,11 +3116,11 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3112,7 +3138,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3133,15 +3159,15 @@
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3164,16 +3190,16 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3187,7 +3213,7 @@
         <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>74</v>
@@ -3223,7 +3249,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3232,7 +3258,7 @@
         <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>96</v>
@@ -3244,15 +3270,15 @@
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3275,13 +3301,13 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3332,7 +3358,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3353,15 +3379,15 @@
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3384,16 +3410,16 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3443,7 +3469,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3464,15 +3490,15 @@
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3495,13 +3521,13 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3552,7 +3578,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3567,10 +3593,10 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -3578,10 +3604,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3604,13 +3630,13 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3637,11 +3663,11 @@
         <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>74</v>
@@ -3659,7 +3685,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3674,10 +3700,10 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
@@ -3685,10 +3711,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3711,13 +3737,13 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3768,7 +3794,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3783,10 +3809,10 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -3794,10 +3820,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3820,13 +3846,13 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3853,11 +3879,11 @@
         <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>74</v>
@@ -3875,7 +3901,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -3890,10 +3916,10 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
@@ -3901,10 +3927,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3927,13 +3953,13 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3960,11 +3986,11 @@
         <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>74</v>
@@ -3982,7 +4008,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -3997,10 +4023,10 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -4008,10 +4034,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4034,13 +4060,13 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4091,7 +4117,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4106,10 +4132,10 @@
         <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4117,10 +4143,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4143,13 +4169,13 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4200,7 +4226,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4215,10 +4241,10 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4226,10 +4252,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4252,13 +4278,13 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4309,7 +4335,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4324,10 +4350,10 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4335,10 +4361,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4364,10 +4390,10 @@
         <v>86</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4418,7 +4444,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4427,7 +4453,7 @@
         <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>74</v>
@@ -4439,19 +4465,19 @@
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4470,16 +4496,16 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4517,19 +4543,19 @@
         <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4541,7 +4567,7 @@
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4550,15 +4576,15 @@
         <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4581,13 +4607,13 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4638,7 +4664,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4659,15 +4685,15 @@
         <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4690,13 +4716,13 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4747,7 +4773,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4768,15 +4794,15 @@
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4799,13 +4825,13 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4832,13 +4858,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -4856,7 +4882,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -4871,10 +4897,10 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -4882,10 +4908,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4908,13 +4934,13 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4941,13 +4967,13 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>74</v>
@@ -4965,7 +4991,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -4980,10 +5006,10 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -4991,10 +5017,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5017,13 +5043,13 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5074,7 +5100,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5089,10 +5115,10 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>269</v>
+        <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5100,10 +5126,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5126,13 +5152,13 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5183,7 +5209,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5198,10 +5224,10 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5209,10 +5235,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5235,13 +5261,13 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5292,7 +5318,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5307,10 +5333,10 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -5318,10 +5344,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5344,13 +5370,13 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5401,7 +5427,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5416,10 +5442,10 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -5427,10 +5453,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5453,13 +5479,13 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5510,7 +5536,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5519,7 +5545,7 @@
         <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>74</v>
@@ -5531,19 +5557,19 @@
         <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5562,16 +5588,16 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5621,7 +5647,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5633,7 +5659,7 @@
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -5642,19 +5668,19 @@
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5673,19 +5699,19 @@
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -5734,7 +5760,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5746,7 +5772,7 @@
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -5755,15 +5781,15 @@
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5786,13 +5812,13 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5843,7 +5869,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -5858,10 +5884,10 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -5869,10 +5895,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5898,10 +5924,10 @@
         <v>86</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5952,7 +5978,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -5961,7 +5987,7 @@
         <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>74</v>
@@ -5973,19 +5999,19 @@
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6004,16 +6030,16 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6051,19 +6077,19 @@
         <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6075,7 +6101,7 @@
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
@@ -6084,15 +6110,15 @@
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6118,16 +6144,16 @@
         <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
@@ -6152,11 +6178,13 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -6174,7 +6202,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6195,15 +6223,15 @@
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6226,19 +6254,19 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6263,11 +6291,13 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Y45" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="Z45" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -6285,7 +6315,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6306,15 +6336,15 @@
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6340,16 +6370,16 @@
         <v>98</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6362,7 +6392,7 @@
         <v>74</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>74</v>
@@ -6374,11 +6404,11 @@
         <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -6396,7 +6426,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6417,15 +6447,15 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6448,16 +6478,16 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6471,7 +6501,7 @@
         <v>74</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>74</v>
@@ -6507,7 +6537,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6516,7 +6546,7 @@
         <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>96</v>
@@ -6528,15 +6558,15 @@
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6559,13 +6589,13 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6616,7 +6646,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -6637,15 +6667,15 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6668,16 +6698,16 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6727,7 +6757,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -6748,15 +6778,15 @@
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6779,13 +6809,13 @@
         <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6812,11 +6842,11 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -6834,7 +6864,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -6849,10 +6879,10 @@
         <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>74</v>
+        <v>313</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -6860,10 +6890,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6886,13 +6916,13 @@
         <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6919,11 +6949,11 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -6941,7 +6971,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -6956,10 +6986,10 @@
         <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>74</v>
@@ -6967,10 +6997,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6993,13 +7023,13 @@
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7050,7 +7080,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7065,10 +7095,10 @@
         <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7076,10 +7106,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7105,10 +7135,10 @@
         <v>77</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7159,7 +7189,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7174,10 +7204,10 @@
         <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>320</v>
+        <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T13:49:45+00:00</t>
+    <t>2023-04-06T08:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="326">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -593,9 +593,6 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/VsRegulatedAuthorization</t>
-  </si>
-  <si>
     <t>Identifier.system</t>
   </si>
   <si>
@@ -697,7 +694,10 @@
     <t>Overall type of this authorization, for example drug marketing approval, orphan drug designation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/RegulatedAuthorizationTypeIdSystems</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/regulatedAuthorizationType</t>
   </si>
   <si>
     <t>RegulatedAuthorization.description</t>
@@ -843,9 +843,6 @@
   </si>
   <si>
     <t>The legal or regulatory framework against which this authorization is granted, or other reasons for it.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>A legal or regulatory framework against which an authorization is granted, or other reasons for it.</t>
@@ -1365,7 +1362,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="87.234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.21875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3116,29 +3113,31 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3159,15 +3158,15 @@
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3190,16 +3189,16 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3213,52 +3212,52 @@
         <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="U17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>96</v>
@@ -3270,15 +3269,15 @@
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3301,13 +3300,13 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3358,7 +3357,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3379,15 +3378,15 @@
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3410,16 +3409,16 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3469,7 +3468,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3490,15 +3489,15 @@
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3521,13 +3520,13 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3578,7 +3577,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3596,7 +3595,7 @@
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -3604,10 +3603,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3633,10 +3632,10 @@
         <v>171</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3663,7 +3662,7 @@
         <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
@@ -3685,7 +3684,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4169,7 +4168,7 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>241</v>
@@ -4967,13 +4966,13 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>74</v>
@@ -5009,7 +5008,7 @@
         <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5017,10 +5016,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5043,13 +5042,13 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5100,7 +5099,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5118,7 +5117,7 @@
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5126,10 +5125,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5152,13 +5151,13 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5209,7 +5208,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5227,7 +5226,7 @@
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5235,10 +5234,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5261,13 +5260,13 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5318,7 +5317,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5344,10 +5343,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5370,13 +5369,13 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5427,7 +5426,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5445,7 +5444,7 @@
         <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -5453,10 +5452,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5479,7 +5478,7 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>150</v>
@@ -5562,10 +5561,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5673,14 +5672,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5702,10 +5701,10 @@
         <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>135</v>
@@ -5760,7 +5759,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5786,10 +5785,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5815,10 +5814,10 @@
         <v>144</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5869,7 +5868,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -5887,7 +5886,7 @@
         <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -5895,10 +5894,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6004,10 +6003,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6115,10 +6114,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6228,10 +6227,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6341,10 +6340,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6408,7 +6407,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -6426,7 +6425,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6447,15 +6446,15 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6478,16 +6477,16 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6501,52 +6500,52 @@
         <v>74</v>
       </c>
       <c r="T47" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="U47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF47" t="s" s="2">
+      <c r="AG47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI47" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>96</v>
@@ -6558,15 +6557,15 @@
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6589,13 +6588,13 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6646,7 +6645,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -6667,15 +6666,15 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6698,16 +6697,16 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6757,7 +6756,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -6778,15 +6777,15 @@
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6812,10 +6811,10 @@
         <v>171</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6846,7 +6845,7 @@
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -6864,7 +6863,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -6882,7 +6881,7 @@
         <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -6890,10 +6889,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6919,10 +6918,10 @@
         <v>171</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6953,7 +6952,7 @@
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -6971,7 +6970,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -6997,10 +6996,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7023,13 +7022,13 @@
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7080,7 +7079,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7098,7 +7097,7 @@
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7106,10 +7105,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7135,10 +7134,10 @@
         <v>77</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7189,7 +7188,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7207,7 +7206,7 @@
         <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
